--- a/1/1/hua1.xlsx
+++ b/1/1/hua1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13055" windowHeight="8952"/>
+    <workbookView windowWidth="21094" windowHeight="8434"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="75">
   <si>
     <t>说话人名</t>
   </si>
@@ -49,15 +49,18 @@
     <t>背景音乐文件名</t>
   </si>
   <si>
+    <t>动画</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>大图片1</t>
+  </si>
+  <si>
     <t>移动方式</t>
   </si>
   <si>
-    <t>位置</t>
-  </si>
-  <si>
-    <t>大图片1</t>
-  </si>
-  <si>
     <t>大图片2</t>
   </si>
   <si>
@@ -67,7 +70,13 @@
     <t>马桶</t>
   </si>
   <si>
-    <t>是梦吗!竟然有新人了，终于有人陪我说话了，但是你怎么这么矮啊，没有水营养不良吗？这附近还是有很多水的，你等会去找找看吧，别饿撅了。我跟你说#&amp;*@。。。</t>
+    <t>是梦吗!竟然有新人了，终于有人陪我说话了，但是你怎么这么矮啊，没有水营养不良吗？</t>
+  </si>
+  <si>
+    <t>马桶盖开合</t>
+  </si>
+  <si>
+    <t>这附近还是有很多水的，你等会去找找看吧，别饿撅了。我跟你说#&amp;*@。。。</t>
   </si>
   <si>
     <t>PPP</t>
@@ -91,6 +100,9 @@
     <t>Y</t>
   </si>
   <si>
+    <t>淋浴动画</t>
+  </si>
+  <si>
     <t>虽然你长大离开了，但还是经常回来陪我说说话吧，别留我一个人，我好想#&amp;*@。。。</t>
   </si>
   <si>
@@ -115,7 +127,10 @@
     <t>沙发</t>
   </si>
   <si>
-    <t>老弟走不动了？下来坐坐吧，但看起来你好像是缺水啊，我记得冰箱旁边有点陈年废水，你要不要啊？</t>
+    <t>老弟走不动了？下来坐坐吧，但看起来你好像是缺水啊，我记得冰箱旁边有点陈年废水，你</t>
+  </si>
+  <si>
+    <t>要不要啊？</t>
   </si>
   <si>
     <t>水杯</t>
@@ -160,12 +175,24 @@
     <t>我好脏啊，我要干净水，给我换成干净水的话，到时候水可以分你一些。</t>
   </si>
   <si>
-    <t>能不能来点水啊，我好想工作，几百年没动过了，再不动就要送去报废了。如果有水我可以给你加热哦，但是你应该用不了吧，会直接把你烫熟的。</t>
+    <t>能不能来点水啊，我好想工作，几百年没动过了，再不动就要送去报废了。如果有水我可以</t>
+  </si>
+  <si>
+    <t>给你加热哦，但是你应该用不了吧，会直接把你烫熟的。</t>
+  </si>
+  <si>
+    <t>水杯移动热</t>
   </si>
   <si>
     <t>热爱105度的我，滴滴冰爽的纯净水。</t>
   </si>
   <si>
+    <t>水杯移动冰</t>
+  </si>
+  <si>
+    <t>冰箱打开</t>
+  </si>
+  <si>
     <t>能帮上忙就行。</t>
   </si>
   <si>
@@ -178,40 +205,55 @@
     <t>要是再火热一点就更好了。</t>
   </si>
   <si>
-    <t>种子</t>
-  </si>
-  <si>
-    <t>我靠</t>
-  </si>
-  <si>
-    <t>石头</t>
-  </si>
-  <si>
-    <t>去尼德</t>
-  </si>
-  <si>
-    <t>靠靠</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">b </t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>杂物1</t>
+  </si>
+  <si>
+    <t>我们看着那个洞里漏出的光看了太久了，但是没有任何人可以从洞里离开，希望你可以替我</t>
+  </si>
+  <si>
+    <t>们去看看外面的世界。</t>
+  </si>
+  <si>
+    <t>杂物2</t>
+  </si>
+  <si>
+    <t>加油，你就是我们的希望！</t>
+  </si>
+  <si>
+    <t>杂物3</t>
+  </si>
+  <si>
+    <t>你的世界将会更为宽广。</t>
+  </si>
+  <si>
+    <t>杂物4</t>
+  </si>
+  <si>
+    <t>将生命的真谛传递下去吧。</t>
+  </si>
+  <si>
+    <t>杂物5</t>
+  </si>
+  <si>
+    <t>长成更枝繁叶茂的大树。</t>
+  </si>
+  <si>
+    <t>杂物6</t>
+  </si>
+  <si>
+    <t>郁郁葱葱。</t>
+  </si>
+  <si>
+    <t>杂物7</t>
+  </si>
+  <si>
+    <t>虬枝峥嵘。</t>
+  </si>
+  <si>
+    <t>杂物8</t>
+  </si>
+  <si>
+    <t>生生不息。</t>
   </si>
 </sst>
 </file>
@@ -1152,20 +1194,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q177"/>
+  <dimension ref="A1:Q143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E87"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="2" max="2" width="26.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="42.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="11.8918918918919" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="16.4414414414414" customWidth="1"/>
+    <col min="7" max="7" width="11.8918918918919" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1197,16 +1239,16 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1">
         <v>2</v>
@@ -1221,167 +1263,163 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="129.6" spans="1:2">
+    <row r="2" ht="28.3" spans="1:7">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3" spans="1:7">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" ht="28.8" spans="1:2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    <row r="5" spans="2:2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" ht="14.15" spans="1:2">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="2:2">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" ht="43.2" spans="1:2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    <row r="8" spans="2:2">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" ht="28.3" spans="1:2">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" ht="57.6" spans="1:2">
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" ht="28.8" spans="1:2">
-      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="28.3" spans="1:7">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
         <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" ht="14.15" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1"/>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" ht="14.15" spans="1:2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
@@ -1389,14 +1427,14 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" ht="57.6" spans="1:2">
+    <row r="30" ht="14.15" spans="1:2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1406,535 +1444,667 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" ht="14.15" spans="1:2">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1">
-        <v>60</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" ht="43.2" spans="1:2">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+    <row r="35" spans="2:2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" ht="28.3" spans="1:2">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" ht="14.15" spans="1:2">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1">
+        <v>65</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" ht="28.8" spans="1:2">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" ht="28.3" spans="1:2">
+      <c r="A42" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" ht="43.2" spans="1:2">
-      <c r="A44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" ht="14.15" spans="1:2">
+      <c r="A45" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" ht="28.3" spans="1:2">
+      <c r="A48" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" ht="28.3" spans="1:2">
+      <c r="A51" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+    <row r="53" spans="2:2">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" ht="14.15" spans="1:2">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2">
+        <v>42</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+    <row r="56" spans="2:2">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="57" ht="14.15" spans="1:2">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:2">
+        <v>44</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" ht="43.2" spans="1:2">
-      <c r="A59" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" ht="14.15" spans="1:2">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1"/>
+    </row>
+    <row r="63" ht="14.15" spans="1:2">
+      <c r="A63" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="1">
-        <v>65</v>
-      </c>
-      <c r="E61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" ht="86.4" spans="1:2">
+      <c r="B63" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="2:2">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" ht="28.3" spans="1:2">
       <c r="A66" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="1">
-        <v>70</v>
-      </c>
-      <c r="E66" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B67" s="1"/>
     </row>
-    <row r="69" ht="28.8" spans="1:2">
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="1">
+        <v>70</v>
+      </c>
+      <c r="E68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="2:2">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" ht="28.3" spans="1:2">
       <c r="A71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71" s="1">
-        <v>78</v>
-      </c>
-      <c r="E71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" ht="28.3" spans="1:2">
       <c r="A72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="1">
-        <v>81</v>
-      </c>
-      <c r="E72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" s="1">
-        <v>84</v>
-      </c>
-      <c r="E73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="B73" s="1"/>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" s="1">
-        <v>87</v>
-      </c>
-      <c r="E74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="G74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:2">
+        <v>38</v>
+      </c>
+      <c r="B75" s="1">
+        <v>80</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>27</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>45</v>
-      </c>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" ht="28.8" spans="1:2">
-      <c r="A80" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+    <row r="80" spans="2:2">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" ht="14.15" spans="1:2">
       <c r="A81" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="2:2">
+        <v>38</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="G83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="1"/>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="B84" s="1">
+        <v>98</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="1">
+        <v>101</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="1">
+        <v>104</v>
+      </c>
+      <c r="E86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="1">
+        <v>107</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="1">
+        <v>98</v>
+      </c>
+      <c r="E93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="1">
+        <v>101</v>
+      </c>
+      <c r="E94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="1">
+        <v>104</v>
+      </c>
+      <c r="E95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="1">
+        <v>107</v>
+      </c>
+      <c r="E96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" ht="14.15" spans="1:2">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="1"/>
+    </row>
+    <row r="102" ht="14.15" spans="1:2">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" ht="14.15" spans="1:2">
+      <c r="A105" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="108" ht="14.15" spans="1:2">
+      <c r="A108" t="s">
+        <v>38</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="1"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" ht="28.3" spans="1:2">
+      <c r="A111" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" ht="14.15" spans="1:2">
+      <c r="A112" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="1"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>61</v>
+      </c>
+      <c r="B115" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>65</v>
+      </c>
+      <c r="B121" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>67</v>
+      </c>
+      <c r="B124" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>69</v>
+      </c>
+      <c r="B127" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>71</v>
+      </c>
+      <c r="B130" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>73</v>
+      </c>
+      <c r="B133" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="28.3" spans="1:2">
+      <c r="A139" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" ht="14.15" spans="1:2">
+      <c r="A140" t="s">
+        <v>31</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="1"/>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>49</v>
-      </c>
-      <c r="B165" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>51</v>
-      </c>
-      <c r="B166" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>49</v>
-      </c>
-      <c r="B167" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" t="s">
-        <v>55</v>
-      </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-      <c r="C169" t="s">
-        <v>56</v>
-      </c>
-      <c r="D169">
-        <v>2</v>
-      </c>
-      <c r="E169" t="s">
-        <v>57</v>
-      </c>
-      <c r="F169">
-        <v>3</v>
-      </c>
-      <c r="G169" t="s">
-        <v>58</v>
-      </c>
-      <c r="H169">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" t="s">
-        <v>33</v>
-      </c>
-      <c r="B171">
-        <v>10</v>
-      </c>
-      <c r="C171">
-        <v>10</v>
-      </c>
-      <c r="D171">
-        <v>1</v>
-      </c>
-      <c r="E171" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" t="s">
-        <v>33</v>
-      </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
-        <v>2</v>
-      </c>
-      <c r="E172" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" t="s">
-        <v>33</v>
-      </c>
-      <c r="B173">
-        <v>10</v>
-      </c>
-      <c r="C173">
-        <v>10</v>
-      </c>
-      <c r="D173">
-        <v>1</v>
-      </c>
-      <c r="E173" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" t="s">
-        <v>33</v>
-      </c>
-      <c r="B174">
-        <v>10</v>
-      </c>
-      <c r="C174">
-        <v>10</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" t="s">
-        <v>33</v>
-      </c>
-      <c r="B175">
-        <v>10</v>
-      </c>
-      <c r="C175">
-        <v>10</v>
-      </c>
-      <c r="D175">
-        <v>1</v>
-      </c>
-      <c r="E175" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" t="s">
-        <v>33</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176">
-        <v>2</v>
-      </c>
-      <c r="E176" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>21</v>
+      </c>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>34</v>
+      </c>
+      <c r="B142" s="1">
+        <v>65</v>
+      </c>
+      <c r="E142" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1949,10 +2119,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1966,10 +2136,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
